--- a/target/test-classes/testdata/Book1.xlsx
+++ b/target/test-classes/testdata/Book1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="56">
   <si>
     <t>Popular Surgeries</t>
   </si>
@@ -375,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="498">
+  <cellXfs count="522">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -385,6 +385,78 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -2268,7 +2340,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="43.66796875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.26171875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -2277,28 +2349,28 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="474">
-        <v>46</v>
+      <c r="A2" t="s" s="498">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="475">
+      <c r="A3" t="s" s="499">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="476">
-        <v>50</v>
+      <c r="A4" t="s" s="500">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="477">
-        <v>48</v>
+      <c r="A5" t="s" s="501">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="478">
-        <v>55</v>
+      <c r="A6" t="s" s="502">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2325,97 +2397,97 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="479">
+      <c r="A2" t="s" s="503">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="480">
+      <c r="A3" t="s" s="504">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="481">
+      <c r="A4" t="s" s="505">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="482">
+      <c r="A5" t="s" s="506">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="483">
+      <c r="A6" t="s" s="507">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="484">
+      <c r="A7" t="s" s="508">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="485">
+      <c r="A8" t="s" s="509">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="486">
+      <c r="A9" t="s" s="510">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="487">
+      <c r="A10" t="s" s="511">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="488">
+      <c r="A11" t="s" s="512">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="489">
+      <c r="A12" t="s" s="513">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="490">
+      <c r="A13" t="s" s="514">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="491">
+      <c r="A14" t="s" s="515">
         <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="492">
+      <c r="A15" t="s" s="516">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="493">
+      <c r="A16" t="s" s="517">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="494">
+      <c r="A17" t="s" s="518">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="495">
+      <c r="A18" t="s" s="519">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="496">
+      <c r="A19" t="s" s="520">
         <v>18</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="497">
+      <c r="A20" t="s" s="521">
         <v>19</v>
       </c>
     </row>

--- a/target/test-classes/testdata/Book1.xlsx
+++ b/target/test-classes/testdata/Book1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="74">
   <si>
     <t>Popular Surgeries</t>
   </si>
@@ -306,6 +306,149 @@
 Whitefield,Bangalore  You Smile Dental Clinic
 ₹400 Consultation fee at clinic
 100% 87 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Rashmi Shetty
+Dentist
+19 years experience overall
+Koramangala,Bangalore  Chisel Dental
+₹350 Consultation fee at clinic
+99% 2767 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Minty Sharma
+Dentist
+18 years experience overall
+HSR Layout,Bangalore  Smiles Dental Studio
+₹350 Consultation fee at clinic
+98% 256 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Shilpa I.G
+Dentist
+17 years experience overall
+Singasandra,Bangalore  Dental 32
+₹300 Consultation fee at clinic
+98% 199 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Priya Bansal
+Dentist
+18 years experience overall
+Koramangala,Bangalore  Priya Dental Clinic
+₹500 Consultation fee at clinic
+99% 200 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sumanth Shetty
+Dentist
+25 years experience overall
+Koramangala,Bangalore  Chisel Dental
+₹300 Consultation fee at clinic
+97% 2708 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Jnanesha H.C
+Dentist
+22 years experience overall
+Jayanagar 4 Block,Bangalore  Excel Dental Care
+₹300 Consultation fee at clinic
+98% 331 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. K.A. Mohan
+Dentist
+55 years experience overall
+Domlur,Bangalore  Dental De Care
+₹500 Consultation fee at clinic
+96% 33 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Satish M S
+Dentist
+20 years experience overall
+Hebbal,Bangalore  Aster CMI Hospital + 3 more
+₹1100 Consultation fee at clinic
+97% 20 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Shylesh Shetty
+Dentist
+25 years experience overall
+Indiranagar,Bangalore  Excellence Dental + 1 more
+₹1000 Consultation fee at clinic
+99% 448 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Pragya Pathak
+Dentist
+10 years experience overall
+Indiranagar,Bangalore  Excellence Dental + 1 more
+₹1000 Consultation fee at clinic
+98% 168 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Akanksha Sachdeva
+Dentist
+13 years experience overall
+Indiranagar,Bangalore  Ridgetop Dental International pvt ltd + 1 more
+₹1000 Consultation fee at clinic
+100% 54 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Prabala K V
+Dentist
+13 years experience overall
+Yelahanka New Town,Bangalore  Dr. Jayamma Multi Speciality Dental Clinic &amp; Digital O.P.G. Centre
+₹450 Consultation fee at clinic
+99% 99 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Archana S
+Dentist
+19 years experience overall
+HSR Layout,Bangalore  Dental Trendz
+₹300 Consultation fee at clinic
+99% 83 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Aditi Garg
+Dentist
+17 years experience overall
+HSR Layout,Bangalore  Elite Esthetics and Dental Clinic
+₹500 Consultation fee at clinic
+99% 47 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Dinesh Shetty
+Dentist
+20 years experience overall
+Millers Road,Bangalore  Manipal Hospital, Millers Road + 1 more
+₹1000 Consultation fee at clinic
+100% 53 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Jayashankar B V
+Dentist
+13 years experience overall
+Millers Road,Bangalore  Manipal Hospital, Millers Road
+₹1000 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Nita Kashyap
+Dentist
+13 years experience overall
+CV Raman Nagar,Bangalore  The Dental Hub + 1 more
+₹400 Consultation fee at clinic
+99% 288 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Baswaraj Biradar
+Dentist
+27 years experience overall
+Sahakaranagar,Bangalore  Impressions Dental Specialities
+₹400 Consultation fee at clinic
+99% 433 Patient Stories</t>
   </si>
 </sst>
 </file>
@@ -375,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="522">
+  <cellXfs count="971">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -385,6 +528,1353 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -2340,7 +3830,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="54.26171875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.76171875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -2349,28 +3839,28 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="498">
-        <v>52</v>
+      <c r="A2" t="s" s="947">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="499">
-        <v>20</v>
+      <c r="A3" t="s" s="948">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="500">
-        <v>32</v>
+      <c r="A4" t="s" s="949">
+        <v>62</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="501">
-        <v>21</v>
+      <c r="A5" t="s" s="950">
+        <v>56</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="502">
-        <v>39</v>
+      <c r="A6" t="s" s="951">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2397,97 +3887,97 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="503">
+      <c r="A2" t="s" s="952">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="504">
+      <c r="A3" t="s" s="953">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="505">
+      <c r="A4" t="s" s="954">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="506">
+      <c r="A5" t="s" s="955">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="507">
+      <c r="A6" t="s" s="956">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="508">
+      <c r="A7" t="s" s="957">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="509">
+      <c r="A8" t="s" s="958">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="510">
+      <c r="A9" t="s" s="959">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="511">
+      <c r="A10" t="s" s="960">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
+      <c r="A11" t="s" s="961">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="513">
+      <c r="A12" t="s" s="962">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="514">
+      <c r="A13" t="s" s="963">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="515">
+      <c r="A14" t="s" s="964">
         <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="516">
+      <c r="A15" t="s" s="965">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="517">
+      <c r="A16" t="s" s="966">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="518">
+      <c r="A17" t="s" s="967">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="519">
+      <c r="A18" t="s" s="968">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="520">
+      <c r="A19" t="s" s="969">
         <v>18</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="521">
+      <c r="A20" t="s" s="970">
         <v>19</v>
       </c>
     </row>
